--- a/JiJin的副本.xlsx
+++ b/JiJin的副本.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20740" yWindow="1220" windowWidth="15420" windowHeight="14540"/>
+    <workbookView xWindow="18180" yWindow="1220" windowWidth="15420" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1330,10 +1330,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>广发新兴产业精选混合A_(组)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>最强医疗</t>
     <rPh sb="0" eb="1">
       <t>zui'qiang</t>
@@ -3280,6 +3276,10 @@
   </si>
   <si>
     <t>富国新动力灵活配置混合A_(组)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发新兴产业精选混合A_(组)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3813,8 +3813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B220" sqref="B220"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.59765625" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -3860,13 +3860,13 @@
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>369</v>
-      </c>
       <c r="C2" s="26" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>90</v>
@@ -3879,16 +3879,16 @@
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>371</v>
-      </c>
       <c r="C3" s="26" t="s">
+        <v>701</v>
+      </c>
+      <c r="D3" s="26" t="s">
         <v>702</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>703</v>
       </c>
       <c r="E3" s="26"/>
       <c r="F3" s="2"/>
@@ -3898,13 +3898,13 @@
     </row>
     <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>373</v>
-      </c>
       <c r="C4" s="26" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>91</v>
@@ -3917,10 +3917,10 @@
     </row>
     <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>375</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>179</v>
@@ -3936,10 +3936,10 @@
     </row>
     <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>255</v>
@@ -3955,16 +3955,16 @@
     </row>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
+        <v>377</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>379</v>
-      </c>
       <c r="C7" s="26" t="s">
+        <v>704</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>705</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>706</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>43</v>
@@ -3976,16 +3976,16 @@
     </row>
     <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>381</v>
-      </c>
       <c r="C8" s="26" t="s">
+        <v>706</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>707</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>708</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="2"/>
@@ -3995,16 +3995,16 @@
     </row>
     <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>383</v>
-      </c>
       <c r="C9" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>709</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>710</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>73</v>
@@ -4016,16 +4016,16 @@
     </row>
     <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>385</v>
-      </c>
       <c r="C10" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="D10" s="26" t="s">
         <v>711</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>712</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="2"/>
@@ -4035,16 +4035,16 @@
     </row>
     <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>387</v>
-      </c>
       <c r="C11" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="D11" s="26" t="s">
         <v>713</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>714</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="2"/>
@@ -4054,16 +4054,16 @@
     </row>
     <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>389</v>
-      </c>
       <c r="C12" s="26" t="s">
+        <v>714</v>
+      </c>
+      <c r="D12" s="26" t="s">
         <v>715</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>716</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="2"/>
@@ -4073,16 +4073,16 @@
     </row>
     <row r="13" spans="1:9" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="C13" s="26" t="s">
+        <v>716</v>
+      </c>
+      <c r="D13" s="26" t="s">
         <v>717</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>718</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="2"/>
@@ -4092,16 +4092,16 @@
     </row>
     <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>393</v>
-      </c>
       <c r="C14" s="26" t="s">
+        <v>718</v>
+      </c>
+      <c r="D14" s="26" t="s">
         <v>719</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>720</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="2"/>
@@ -4111,10 +4111,10 @@
     </row>
     <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -4126,10 +4126,10 @@
     </row>
     <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>259</v>
@@ -4145,10 +4145,10 @@
     </row>
     <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>399</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>261</v>
@@ -4164,10 +4164,10 @@
     </row>
     <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>263</v>
@@ -4186,7 +4186,7 @@
         <v>288</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>265</v>
@@ -4202,10 +4202,10 @@
     </row>
     <row r="20" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>267</v>
@@ -4221,10 +4221,10 @@
     </row>
     <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>268</v>
@@ -4242,10 +4242,10 @@
     </row>
     <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>270</v>
@@ -4261,10 +4261,10 @@
     </row>
     <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>410</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>271</v>
@@ -4280,10 +4280,10 @@
     </row>
     <row r="24" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>273</v>
@@ -4299,7 +4299,7 @@
     </row>
     <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>0</v>
@@ -4315,10 +4315,10 @@
     </row>
     <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>415</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>274</v>
@@ -4336,10 +4336,10 @@
     </row>
     <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>417</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>276</v>
@@ -4355,10 +4355,10 @@
     </row>
     <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>419</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>278</v>
@@ -4374,10 +4374,10 @@
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>182</v>
@@ -4393,10 +4393,10 @@
     </row>
     <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>423</v>
       </c>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
@@ -4408,10 +4408,10 @@
     </row>
     <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>233</v>
@@ -4429,10 +4429,10 @@
     </row>
     <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>427</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>184</v>
@@ -4448,10 +4448,10 @@
     </row>
     <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>429</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -4466,7 +4466,7 @@
         <v>161130</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>162</v>
@@ -4484,10 +4484,10 @@
     </row>
     <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>280</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>11</v>
@@ -4524,7 +4524,7 @@
     </row>
     <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>8</v>
@@ -4543,10 +4543,10 @@
     </row>
     <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>436</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>283</v>
@@ -4562,10 +4562,10 @@
     </row>
     <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>438</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -4577,10 +4577,10 @@
     </row>
     <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>440</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>188</v>
@@ -4598,10 +4598,10 @@
     </row>
     <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>442</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>190</v>
@@ -4617,10 +4617,10 @@
     </row>
     <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>444</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>141</v>
@@ -4636,10 +4636,10 @@
     </row>
     <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>446</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>143</v>
@@ -4655,10 +4655,10 @@
     </row>
     <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>285</v>
@@ -4674,10 +4674,10 @@
     </row>
     <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>84</v>
@@ -4693,10 +4693,10 @@
     </row>
     <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>452</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>144</v>
@@ -4712,10 +4712,10 @@
     </row>
     <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>192</v>
@@ -4731,10 +4731,10 @@
     </row>
     <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>456</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>169</v>
@@ -4750,10 +4750,10 @@
     </row>
     <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>195</v>
@@ -4769,10 +4769,10 @@
     </row>
     <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>460</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>286</v>
@@ -4788,10 +4788,10 @@
     </row>
     <row r="51" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>462</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>172</v>
@@ -4807,10 +4807,10 @@
     </row>
     <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>464</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>145</v>
@@ -4826,10 +4826,10 @@
     </row>
     <row r="53" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>466</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -4841,16 +4841,16 @@
     </row>
     <row r="54" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>468</v>
-      </c>
       <c r="C54" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>721</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>722</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>75</v>
@@ -4862,16 +4862,16 @@
     </row>
     <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>470</v>
-      </c>
       <c r="C55" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>715</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>716</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -4881,16 +4881,16 @@
     </row>
     <row r="56" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>472</v>
-      </c>
       <c r="C56" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>723</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>724</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -4900,16 +4900,16 @@
     </row>
     <row r="57" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>474</v>
-      </c>
       <c r="C57" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>725</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>726</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -4919,16 +4919,16 @@
     </row>
     <row r="58" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>476</v>
-      </c>
       <c r="C58" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>727</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>728</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -4938,16 +4938,16 @@
     </row>
     <row r="59" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>478</v>
-      </c>
       <c r="C59" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>729</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>730</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -4957,16 +4957,16 @@
     </row>
     <row r="60" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>480</v>
-      </c>
       <c r="C60" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>731</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>732</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -4976,16 +4976,16 @@
     </row>
     <row r="61" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>482</v>
-      </c>
       <c r="C61" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>733</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>734</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -4995,16 +4995,16 @@
     </row>
     <row r="62" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>484</v>
-      </c>
       <c r="C62" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>735</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>736</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -5014,10 +5014,10 @@
     </row>
     <row r="63" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>486</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -5029,10 +5029,10 @@
     </row>
     <row r="64" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>488</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>176</v>
@@ -5050,10 +5050,10 @@
     </row>
     <row r="65" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>489</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>490</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>54</v>
@@ -5069,7 +5069,7 @@
     </row>
     <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>3</v>
@@ -5091,7 +5091,7 @@
         <v>6</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>56</v>
@@ -5126,7 +5126,7 @@
     </row>
     <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>12</v>
@@ -5145,10 +5145,10 @@
     </row>
     <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>494</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>495</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -5160,10 +5160,10 @@
     </row>
     <row r="71" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>497</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>59</v>
@@ -5181,7 +5181,7 @@
     </row>
     <row r="72" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>2</v>
@@ -5272,7 +5272,7 @@
     </row>
     <row r="77" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>18</v>
@@ -5293,7 +5293,7 @@
     </row>
     <row r="78" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>15</v>
@@ -5312,7 +5312,7 @@
     </row>
     <row r="79" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>16</v>
@@ -5331,7 +5331,7 @@
     </row>
     <row r="80" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>17</v>
@@ -5350,7 +5350,7 @@
     </row>
     <row r="81" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>21</v>
@@ -5365,7 +5365,7 @@
     </row>
     <row r="82" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>22</v>
@@ -5403,7 +5403,7 @@
     </row>
     <row r="84" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>25</v>
@@ -5420,7 +5420,7 @@
     </row>
     <row r="85" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>4</v>
@@ -5437,10 +5437,10 @@
     </row>
     <row r="86" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>64</v>
@@ -5456,10 +5456,10 @@
     </row>
     <row r="87" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>221</v>
@@ -5475,7 +5475,7 @@
     </row>
     <row r="88" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>27</v>
@@ -5494,10 +5494,10 @@
     </row>
     <row r="89" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>170</v>
@@ -5513,10 +5513,10 @@
     </row>
     <row r="90" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>287</v>
@@ -5532,10 +5532,10 @@
     </row>
     <row r="91" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>501</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -5547,16 +5547,16 @@
     </row>
     <row r="92" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>503</v>
-      </c>
       <c r="C92" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="D92" s="6" t="s">
         <v>577</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>578</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>47</v>
@@ -5571,13 +5571,13 @@
         <v>33</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C93" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="D93" s="6" t="s">
         <v>579</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>580</v>
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="2"/>
@@ -5590,13 +5590,13 @@
         <v>32</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C94" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="D94" s="6" t="s">
         <v>581</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>582</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="2"/>
@@ -5609,13 +5609,13 @@
         <v>31</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C95" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="D95" s="6" t="s">
         <v>583</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>584</v>
       </c>
       <c r="E95" s="6"/>
       <c r="F95" s="2"/>
@@ -5625,16 +5625,16 @@
     </row>
     <row r="96" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>508</v>
-      </c>
       <c r="C96" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="2"/>
@@ -5644,16 +5644,16 @@
     </row>
     <row r="97" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>510</v>
-      </c>
       <c r="C97" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="D97" s="6" t="s">
         <v>647</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>648</v>
       </c>
       <c r="E97" s="6"/>
       <c r="F97" s="2"/>
@@ -5663,16 +5663,16 @@
     </row>
     <row r="98" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>512</v>
-      </c>
       <c r="C98" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="D98" s="6" t="s">
         <v>649</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>650</v>
       </c>
       <c r="E98" s="6"/>
       <c r="F98" s="2"/>
@@ -5682,16 +5682,16 @@
     </row>
     <row r="99" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>514</v>
-      </c>
       <c r="C99" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="D99" s="6" t="s">
         <v>651</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>652</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="2"/>
@@ -5701,16 +5701,16 @@
     </row>
     <row r="100" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>516</v>
-      </c>
       <c r="C100" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="D100" s="6" t="s">
         <v>653</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>654</v>
       </c>
       <c r="E100" s="6"/>
       <c r="F100" s="2"/>
@@ -5720,16 +5720,16 @@
     </row>
     <row r="101" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C101" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="D101" s="6" t="s">
         <v>655</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>656</v>
       </c>
       <c r="E101" s="6"/>
       <c r="F101" s="2"/>
@@ -5739,10 +5739,10 @@
     </row>
     <row r="102" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>540</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>541</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -5754,16 +5754,16 @@
     </row>
     <row r="103" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>543</v>
-      </c>
       <c r="C103" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>705</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>706</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>76</v>
@@ -5775,16 +5775,16 @@
     </row>
     <row r="104" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>545</v>
-      </c>
       <c r="C104" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>715</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>716</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
@@ -5794,16 +5794,16 @@
     </row>
     <row r="105" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>547</v>
-      </c>
       <c r="C105" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>735</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>736</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
@@ -5813,16 +5813,16 @@
     </row>
     <row r="106" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C106" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>727</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>728</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
@@ -5832,16 +5832,16 @@
     </row>
     <row r="107" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C107" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>737</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>738</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
@@ -5851,16 +5851,16 @@
     </row>
     <row r="108" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C108" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>739</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>740</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
@@ -5870,16 +5870,16 @@
     </row>
     <row r="109" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C109" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>741</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>742</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
@@ -5889,7 +5889,7 @@
     </row>
     <row r="110" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>5</v>
@@ -5904,16 +5904,16 @@
     </row>
     <row r="111" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C111" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="D111" s="6" t="s">
         <v>657</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>658</v>
       </c>
       <c r="E111" s="6" t="s">
         <v>48</v>
@@ -5925,16 +5925,16 @@
     </row>
     <row r="112" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C112" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="D112" s="6" t="s">
         <v>659</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>660</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="15"/>
@@ -5944,16 +5944,16 @@
     </row>
     <row r="113" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>521</v>
-      </c>
       <c r="C113" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="D113" s="6" t="s">
         <v>661</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>662</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="15"/>
@@ -5963,16 +5963,16 @@
     </row>
     <row r="114" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C114" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="D114" s="6" t="s">
         <v>663</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>664</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="15"/>
@@ -5982,16 +5982,16 @@
     </row>
     <row r="115" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C115" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="D115" s="6" t="s">
         <v>588</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>589</v>
       </c>
       <c r="E115" s="6"/>
       <c r="F115" s="15"/>
@@ -6007,10 +6007,10 @@
         <v>35</v>
       </c>
       <c r="C116" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="D116" s="6" t="s">
         <v>579</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>580</v>
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="15"/>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="117" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>36</v>
@@ -6039,16 +6039,16 @@
     </row>
     <row r="118" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="C118" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="D118" s="6" t="s">
         <v>665</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>666</v>
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="15"/>
@@ -6058,16 +6058,16 @@
     </row>
     <row r="119" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>320</v>
-      </c>
       <c r="C119" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="D119" s="6" t="s">
         <v>572</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>573</v>
       </c>
       <c r="E119" s="6"/>
       <c r="F119" s="15"/>
@@ -6077,16 +6077,16 @@
     </row>
     <row r="120" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="C120" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="D120" s="6" t="s">
         <v>593</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>594</v>
       </c>
       <c r="E120" s="6"/>
       <c r="F120" s="15"/>
@@ -6096,16 +6096,16 @@
     </row>
     <row r="121" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C121" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="D121" s="6" t="s">
         <v>667</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>668</v>
       </c>
       <c r="E121" s="6"/>
       <c r="F121" s="15"/>
@@ -6115,16 +6115,16 @@
     </row>
     <row r="122" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C122" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="D122" s="6" t="s">
         <v>669</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>670</v>
       </c>
       <c r="E122" s="6"/>
       <c r="F122" s="15"/>
@@ -6140,10 +6140,10 @@
         <v>138</v>
       </c>
       <c r="C123" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="D123" s="6" t="s">
         <v>586</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>587</v>
       </c>
       <c r="E123" s="6"/>
       <c r="F123" s="15"/>
@@ -6153,10 +6153,10 @@
     </row>
     <row r="124" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -6168,16 +6168,16 @@
     </row>
     <row r="125" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>327</v>
-      </c>
       <c r="C125" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="D125" s="6" t="s">
         <v>628</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>629</v>
       </c>
       <c r="E125" s="6" t="s">
         <v>78</v>
@@ -6192,13 +6192,13 @@
         <v>79</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C126" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="D126" s="6" t="s">
         <v>630</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>631</v>
       </c>
       <c r="E126" s="6"/>
       <c r="F126" s="15"/>
@@ -6208,16 +6208,16 @@
     </row>
     <row r="127" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C127" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="D127" s="6" t="s">
         <v>632</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>633</v>
       </c>
       <c r="E127" s="6"/>
       <c r="F127" s="15"/>
@@ -6227,16 +6227,16 @@
     </row>
     <row r="128" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>331</v>
-      </c>
       <c r="C128" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="D128" s="6" t="s">
         <v>634</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>635</v>
       </c>
       <c r="E128" s="6"/>
       <c r="F128" s="15"/>
@@ -6246,16 +6246,16 @@
     </row>
     <row r="129" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C129" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="D129" s="6" t="s">
         <v>636</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>637</v>
       </c>
       <c r="E129" s="6"/>
       <c r="F129" s="15"/>
@@ -6265,16 +6265,16 @@
     </row>
     <row r="130" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>334</v>
-      </c>
       <c r="C130" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="D130" s="6" t="s">
         <v>638</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>639</v>
       </c>
       <c r="E130" s="6"/>
       <c r="F130" s="15"/>
@@ -6284,16 +6284,16 @@
     </row>
     <row r="131" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>554</v>
-      </c>
       <c r="C131" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="D131" s="6" t="s">
         <v>640</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>641</v>
       </c>
       <c r="E131" s="6"/>
       <c r="F131" s="15"/>
@@ -6303,16 +6303,16 @@
     </row>
     <row r="132" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>556</v>
-      </c>
       <c r="C132" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="D132" s="6" t="s">
         <v>642</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>643</v>
       </c>
       <c r="E132" s="6"/>
       <c r="F132" s="15"/>
@@ -6322,10 +6322,10 @@
     </row>
     <row r="133" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>557</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>558</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>135</v>
@@ -6341,16 +6341,16 @@
     </row>
     <row r="134" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>560</v>
-      </c>
       <c r="C134" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="D134" s="6" t="s">
         <v>644</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>645</v>
       </c>
       <c r="E134" s="6"/>
       <c r="F134" s="15"/>
@@ -6360,13 +6360,13 @@
     </row>
     <row r="135" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>336</v>
-      </c>
       <c r="C135" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>206</v>
@@ -6379,10 +6379,10 @@
     </row>
     <row r="136" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>79</v>
@@ -6398,7 +6398,7 @@
     </row>
     <row r="137" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>28</v>
@@ -6413,16 +6413,16 @@
     </row>
     <row r="138" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C138" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>574</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>575</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>80</v>
@@ -6434,16 +6434,16 @@
     </row>
     <row r="139" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>342</v>
-      </c>
       <c r="C139" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>614</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>615</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" s="15"/>
@@ -6453,16 +6453,16 @@
     </row>
     <row r="140" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>344</v>
-      </c>
       <c r="C140" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>616</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>617</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" s="15"/>
@@ -6475,13 +6475,13 @@
         <v>176</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C141" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" s="21"/>
@@ -6491,16 +6491,16 @@
     </row>
     <row r="142" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C142" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>620</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>621</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" s="22"/>
@@ -6513,13 +6513,13 @@
         <v>177</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C143" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>622</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>623</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" s="22"/>
@@ -6529,16 +6529,16 @@
     </row>
     <row r="144" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>562</v>
-      </c>
       <c r="C144" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>624</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>625</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" s="22"/>
@@ -6551,13 +6551,13 @@
         <v>377016</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C145" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>626</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>627</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" s="22"/>
@@ -6567,10 +6567,10 @@
     </row>
     <row r="146" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>564</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>565</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -6585,13 +6585,13 @@
         <v>39</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C147" s="6">
         <v>165516</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E147" s="6" t="s">
         <v>87</v>
@@ -6604,13 +6604,13 @@
         <v>41</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C148" s="6">
         <v>550003</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E148" s="6"/>
       <c r="F148" s="17"/>
@@ -6623,13 +6623,13 @@
         <v>40</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C149" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="D149" s="6" t="s">
         <v>597</v>
-      </c>
-      <c r="D149" s="6" t="s">
-        <v>598</v>
       </c>
       <c r="E149" s="6"/>
       <c r="F149" s="15"/>
@@ -6639,16 +6639,16 @@
     </row>
     <row r="150" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>570</v>
-      </c>
       <c r="C150" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="D150" s="6" t="s">
         <v>599</v>
-      </c>
-      <c r="D150" s="6" t="s">
-        <v>600</v>
       </c>
       <c r="E150" s="6"/>
       <c r="F150" s="22"/>
@@ -6658,16 +6658,16 @@
     </row>
     <row r="151" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>348</v>
-      </c>
       <c r="C151" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="D151" s="6" t="s">
         <v>601</v>
-      </c>
-      <c r="D151" s="6" t="s">
-        <v>602</v>
       </c>
       <c r="E151" s="6"/>
       <c r="F151" s="22"/>
@@ -6677,16 +6677,16 @@
     </row>
     <row r="152" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E152" s="6"/>
       <c r="F152" s="22"/>
@@ -6696,16 +6696,16 @@
     </row>
     <row r="153" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>351</v>
-      </c>
       <c r="C153" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="D153" s="6" t="s">
         <v>604</v>
-      </c>
-      <c r="D153" s="6" t="s">
-        <v>605</v>
       </c>
       <c r="E153" s="6"/>
       <c r="F153" s="22"/>
@@ -6715,16 +6715,16 @@
     </row>
     <row r="154" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="C154" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="D154" s="6" t="s">
         <v>606</v>
-      </c>
-      <c r="D154" s="6" t="s">
-        <v>607</v>
       </c>
       <c r="E154" s="6"/>
       <c r="F154" s="17"/>
@@ -6734,16 +6734,16 @@
     </row>
     <row r="155" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>355</v>
-      </c>
       <c r="C155" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="D155" s="6" t="s">
         <v>608</v>
-      </c>
-      <c r="D155" s="6" t="s">
-        <v>609</v>
       </c>
       <c r="E155" s="6"/>
       <c r="F155" s="23"/>
@@ -6753,16 +6753,16 @@
     </row>
     <row r="156" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>357</v>
-      </c>
       <c r="C156" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="D156" s="6" t="s">
         <v>610</v>
-      </c>
-      <c r="D156" s="6" t="s">
-        <v>611</v>
       </c>
       <c r="E156" s="6"/>
       <c r="F156" s="22"/>
@@ -6775,13 +6775,13 @@
         <v>81</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C157" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="D157" s="6" t="s">
         <v>612</v>
-      </c>
-      <c r="D157" s="6" t="s">
-        <v>613</v>
       </c>
       <c r="E157" s="6"/>
       <c r="F157" s="23"/>
@@ -6794,13 +6794,13 @@
         <v>82</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C158" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="D158" s="6" t="s">
         <v>675</v>
-      </c>
-      <c r="D158" s="6" t="s">
-        <v>676</v>
       </c>
       <c r="E158" s="6"/>
       <c r="F158" s="23"/>
@@ -6810,16 +6810,16 @@
     </row>
     <row r="159" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>361</v>
-      </c>
       <c r="C159" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="D159" s="6" t="s">
         <v>677</v>
-      </c>
-      <c r="D159" s="6" t="s">
-        <v>678</v>
       </c>
       <c r="E159" s="6"/>
       <c r="F159" s="22"/>
@@ -6832,7 +6832,7 @@
         <v>83</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
@@ -6844,16 +6844,16 @@
     </row>
     <row r="161" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>84</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E161" s="6" t="s">
         <v>86</v>
@@ -6865,16 +6865,16 @@
     </row>
     <row r="162" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E162" s="6"/>
       <c r="F162" s="21"/>
@@ -6884,16 +6884,16 @@
     </row>
     <row r="163" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>534</v>
-      </c>
       <c r="C163" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="D163" s="6" t="s">
         <v>681</v>
-      </c>
-      <c r="D163" s="6" t="s">
-        <v>682</v>
       </c>
       <c r="E163" s="6"/>
       <c r="F163" s="23"/>
@@ -6903,16 +6903,16 @@
     </row>
     <row r="164" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>536</v>
-      </c>
       <c r="C164" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="D164" s="6" t="s">
         <v>683</v>
-      </c>
-      <c r="D164" s="6" t="s">
-        <v>684</v>
       </c>
       <c r="E164" s="6"/>
       <c r="F164" s="23"/>
@@ -6922,16 +6922,16 @@
     </row>
     <row r="165" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>538</v>
-      </c>
       <c r="C165" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="D165" s="6" t="s">
         <v>685</v>
-      </c>
-      <c r="D165" s="6" t="s">
-        <v>686</v>
       </c>
       <c r="E165" s="6"/>
       <c r="F165" s="23"/>
@@ -6941,16 +6941,16 @@
     </row>
     <row r="166" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>744</v>
-      </c>
       <c r="C166" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="D166" s="6" t="s">
         <v>687</v>
-      </c>
-      <c r="D166" s="6" t="s">
-        <v>688</v>
       </c>
       <c r="E166" s="6"/>
       <c r="F166" s="23"/>
@@ -6960,16 +6960,16 @@
     </row>
     <row r="167" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>746</v>
-      </c>
       <c r="C167" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E167" s="6"/>
       <c r="F167" s="15"/>
@@ -6979,10 +6979,10 @@
     </row>
     <row r="168" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>747</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>748</v>
       </c>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
@@ -6994,19 +6994,19 @@
     </row>
     <row r="169" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>750</v>
-      </c>
       <c r="C169" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F169" s="23"/>
       <c r="G169" s="7"/>
@@ -7015,16 +7015,16 @@
     </row>
     <row r="170" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>752</v>
-      </c>
       <c r="C170" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E170" s="6"/>
       <c r="F170" s="23"/>
@@ -7034,16 +7034,16 @@
     </row>
     <row r="171" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>754</v>
-      </c>
       <c r="C171" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E171" s="6"/>
       <c r="F171" s="23"/>
@@ -7053,16 +7053,16 @@
     </row>
     <row r="172" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>756</v>
-      </c>
       <c r="C172" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E172" s="6"/>
       <c r="F172" s="23"/>
@@ -7072,16 +7072,16 @@
     </row>
     <row r="173" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>758</v>
-      </c>
       <c r="C173" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E173" s="6"/>
       <c r="F173" s="23"/>
@@ -7091,16 +7091,16 @@
     </row>
     <row r="174" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>760</v>
-      </c>
       <c r="C174" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E174" s="6"/>
       <c r="F174" s="23"/>
@@ -7110,10 +7110,10 @@
     </row>
     <row r="175" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>761</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>762</v>
       </c>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
@@ -7125,19 +7125,19 @@
     </row>
     <row r="176" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C176" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="D176" s="2" t="s">
-        <v>591</v>
-      </c>
       <c r="E176" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F176" s="23"/>
       <c r="G176" s="11"/>
@@ -7146,16 +7146,16 @@
     </row>
     <row r="177" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>764</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>765</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E177" s="2"/>
       <c r="F177" s="16"/>
@@ -7165,16 +7165,16 @@
     </row>
     <row r="178" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>767</v>
-      </c>
       <c r="C178" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="E178" s="2"/>
       <c r="F178" s="23"/>
@@ -7184,16 +7184,16 @@
     </row>
     <row r="179" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>769</v>
-      </c>
       <c r="C179" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E179" s="2"/>
       <c r="F179" s="23"/>
@@ -7203,10 +7203,10 @@
     </row>
     <row r="180" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>770</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>771</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>188</v>
@@ -7222,16 +7222,16 @@
     </row>
     <row r="181" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>773</v>
-      </c>
       <c r="C181" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E181" s="2"/>
       <c r="F181" s="23"/>
@@ -7243,7 +7243,7 @@
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>191</v>
@@ -7258,10 +7258,10 @@
       <c r="A183" s="26"/>
       <c r="B183" s="26"/>
       <c r="C183" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>776</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>777</v>
       </c>
       <c r="E183" s="2"/>
       <c r="F183" s="23"/>
@@ -8135,7 +8135,7 @@
         <v>252</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>292</v>
+        <v>777</v>
       </c>
       <c r="E242" s="15"/>
       <c r="F242" s="15"/>
